--- a/BalanceSheet/PCAR_bal.xlsx
+++ b/BalanceSheet/PCAR_bal.xlsx
@@ -507,16 +507,16 @@
         <v>1465000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-60100000.0</v>
+        <v>1222000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>27400000.0</v>
+        <v>1125000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>153500000.0</v>
+        <v>1136000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-169000000.0</v>
+        <v>1270000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1153200000.0</v>
@@ -1595,16 +1595,16 @@
         <v>5823000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-196600000.0</v>
+        <v>1730000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>376200000.0</v>
+        <v>3982000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-188900000.0</v>
+        <v>3621000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-44300000.0</v>
+        <v>3789000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3823200000.0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-500000.0</v>
+        <v>570000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1385600000.0</v>
@@ -4743,7 +4743,7 @@
         <v>10631500000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>5925000000.0</v>
+        <v>5885500000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>6078700000.0</v>
@@ -4872,7 +4872,7 @@
         <v>15051500000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>11262000000.0</v>
+        <v>11222700000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>10856000000.0</v>
